--- a/doc/ショッピングカート詳細設計.xlsx
+++ b/doc/ショッピングカート詳細設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -247,25 +247,6 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>固定で定義した商品一覧を返却する</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -426,22 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※ListViewは画面表示用のテンプレートファイルのためクラスとしては扱わない</t>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>役割</t>
     <rPh sb="0" eb="2">
       <t>ヤクワリ</t>
@@ -521,6 +486,51 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図
+商品一覧表示
+カート追加</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ作成に伴う習性</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1465,6 +1475,36 @@
             </a:rPr>
             <a:t>ListForm</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- ArrayList : Item&lt;Item&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- num : int</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2060,71 +2100,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2028824" y="6572250"/>
-          <a:ext cx="2614613" cy="966354"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートを別画面にする場合は</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クラスを追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2439,29 +2414,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5105400" y="5532120"/>
-          <a:ext cx="2207895" cy="217170"/>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="3787140" cy="1127760"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54821"/>
+            <a:gd name="adj2" fmla="val -25338"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2481,15 +2459,131 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートの注文内容を取得する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Cart</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クラス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>フィールド（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>種類）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（アクセス権限は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>private </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>にする） </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>itemList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>java.util.ArrayList </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>型）：商品を格納するリスト</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>コンストラクタ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>種類）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（アクセス権限は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>public </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>にする） </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・ 引数なしのコンストラクタ：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>itemList </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>を新たに生成する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2497,29 +2591,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvPr id="28" name="四角形吹き出し 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8488680" y="4191000"/>
-          <a:ext cx="5608320" cy="1935480"/>
+          <a:off x="7025640" y="3810000"/>
+          <a:ext cx="4968240" cy="1935480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60404"/>
+            <a:gd name="adj2" fmla="val -57579"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -2545,7 +2642,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Cart</a:t>
+            <a:t>Item</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2565,7 +2662,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>1 </a:t>
+            <a:t>2 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2593,11 +2690,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・ </a:t>
+            <a:t>・</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>itemList</a:t>
+            <a:t>name</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2605,11 +2702,35 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>java.util.ArrayList </a:t>
+            <a:t>String </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>型）：商品を格納するリスト</a:t>
+            <a:t>型）：商品名 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>price</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>型）：価格</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
@@ -2653,15 +2774,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・ 引数なしのコンストラクタ：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>itemList </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>を新たに生成する。</a:t>
+            <a:t>・商品名と価格を引数に持つコンストラクタ：各値をフィールドにセットする。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
@@ -2696,19 +2809,59 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>add( Item item)</a:t>
+            <a:t>getName( )</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>：</a:t>
+            <a:t>：フィールドに与えられている商品名を返却する。戻り値は </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>itemList </a:t>
+            <a:t>String </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>の最後に商品を追加するメソッド。戻り値は </a:t>
+            <a:t>型。 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>getPrice( )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>：フィールドに与えられている価格を返却する。戻り値は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>int </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>型。 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>printDetail( )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>：商品名と価格を出力するメソッド。戻り値は </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -2716,549 +2869,9 @@
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>とする。 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>show( )</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>：「買い物かご」の中身を表示するメソッド。戻り値は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>void </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>とする。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・ 個々の商品の詳細の表示は、クラス </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Item </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>の </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>printDetail( )</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>メソッドに委譲する。 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>allSum( )</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>：「買い物かご」の中身の合計を計算して返却するメソッド。戻り値は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>int </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>とする。  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="四角形吹き出し 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8275320" y="3840480"/>
-          <a:ext cx="5608320" cy="1935480"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>クラス</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>フィールド（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>2 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>種類）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>（アクセス権限は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>private </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>にする） </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>型）：商品名 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>price</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>int </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>型）：価格</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>コンストラクタ（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>1 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>種類）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>】</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>（アクセス権限は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>public </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>にする） </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・商品名と価格を引数に持つコンストラクタ：各値をフィールドにセットする。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>【public </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>メソッド（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>3 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>種類）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>】 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>getName( )</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>：フィールドに与えられている商品名を返却する。戻り値は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>String </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>型。 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>getPrice( )</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>：フィールドに与えられている価格を返却する。戻り値は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>int </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>型。 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>printDetail( )</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>：商品名と価格を出力するメソッド。戻り値は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>void </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>とする。  </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="四角形吹き出し 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8328660" y="3962400"/>
-          <a:ext cx="5608320" cy="1935480"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Item</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>クラス</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>【public </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メソッド（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>種類）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>】 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>show():</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>order():</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3847,29 +3460,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>131445</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3316605" y="3240405"/>
-          <a:ext cx="2314576" cy="800100"/>
+          <a:off x="2895600" y="3352800"/>
+          <a:ext cx="1851660" cy="853440"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50813"/>
+            <a:gd name="adj2" fmla="val -62500"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -3889,22 +3505,128 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートを同じ画面に表示する場合は</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートについての処理を追加する</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>リストを取得する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>→未作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・合計金額を取得する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>→未作成</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形吹き出し 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3177540" y="1546860"/>
+          <a:ext cx="1851660" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50813"/>
+            <a:gd name="adj2" fmla="val -62500"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>カートが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の場合新規のカートを作成する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4222,8 +3944,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3267075" y="2505075"/>
-          <a:ext cx="2447925" cy="285750"/>
+          <a:off x="2924175" y="2461260"/>
+          <a:ext cx="2207895" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4252,7 +3974,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートの注文内容を取得する</a:t>
+            <a:t>注文情報を格納する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -5042,9 +4764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5151,9 +4871,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5204,7 +4922,7 @@
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
-        <f t="shared" ref="A3" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -5221,6 +4939,26 @@
       </c>
       <c r="F3" s="30" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="28">
+        <v>43684</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,11 +5044,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P35"/>
+  <dimension ref="C2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5318,109 +5054,106 @@
     <col min="16" max="16" width="46.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="7:16" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O3" s="31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="7:16" x14ac:dyDescent="0.2">
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
       <c r="O4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="O5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="O5" s="35" t="s">
-        <v>28</v>
-      </c>
       <c r="P5" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <v>33.9</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O6" s="35"/>
       <c r="P6" s="35"/>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O7" s="35"/>
       <c r="P7" s="35"/>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O8" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.2">
       <c r="K9" s="2"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O10" s="35"/>
       <c r="P10" s="35"/>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O14" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:16" x14ac:dyDescent="0.2">
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="O17" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
@@ -5433,68 +5166,42 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="O20" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="L22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="L23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="L24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5521,30 +5228,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:Z20"/>
+  <dimension ref="C7:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="Z11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>23</v>
       </c>
@@ -5570,9 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5617,9 +5315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
